--- a/TSP docs/Planes/Copy of TSP-FormatoPlaneacionGrupal-v4.1.xlsx
+++ b/TSP docs/Planes/Copy of TSP-FormatoPlaneacionGrupal-v4.1.xlsx
@@ -83,15 +83,30 @@
     <t>Lo real</t>
   </si>
   <si>
+    <t>Formato de Planeación y Seguimiento - Semanas</t>
+  </si>
+  <si>
+    <t>Los Ases</t>
+  </si>
+  <si>
     <t>Contexto</t>
   </si>
   <si>
     <t>Tarea</t>
   </si>
   <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
     <t>Minutos Líder</t>
   </si>
   <si>
+    <t>Valor planeado</t>
+  </si>
+  <si>
     <t>Minutos Admin. Planeación</t>
   </si>
   <si>
@@ -113,12 +128,21 @@
     <t>Valor planeado (VP)</t>
   </si>
   <si>
+    <t>Valor planeado acumulado</t>
+  </si>
+  <si>
     <t>Semana real terminación</t>
   </si>
   <si>
     <t>Valor ganado (VG)</t>
   </si>
   <si>
+    <t>Valor ganado</t>
+  </si>
+  <si>
+    <t>Valor ganado acumulado</t>
+  </si>
+  <si>
     <t>Sistema</t>
   </si>
   <si>
@@ -128,36 +152,12 @@
     <t>Reunión de coordinación semana 1</t>
   </si>
   <si>
-    <t>Formato de Planeación y Seguimiento - Semanas</t>
-  </si>
-  <si>
-    <t>Los Ases</t>
-  </si>
-  <si>
     <t>CONFIGURACIONES GENERALES</t>
   </si>
   <si>
-    <t>Semana</t>
-  </si>
-  <si>
-    <t>Horas</t>
-  </si>
-  <si>
-    <t>Valor planeado</t>
-  </si>
-  <si>
-    <t>Valor planeado acumulado</t>
-  </si>
-  <si>
     <t>Realizar entrevista al usuario</t>
   </si>
   <si>
-    <t>Valor ganado</t>
-  </si>
-  <si>
-    <t>Valor ganado acumulado</t>
-  </si>
-  <si>
     <t>CU. Reportar problema</t>
   </si>
   <si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Definir arquitectura</t>
+  </si>
+  <si>
+    <t>Las horas de cada semana no pueden superar las horas de trabajo del grupo por semana</t>
   </si>
   <si>
     <t>Elaborar mockup</t>
@@ -269,17 +272,14 @@
   <si>
     <t>no excedan las horas de trabajo del grupo en el ciclo</t>
   </si>
-  <si>
-    <t>Las horas de cada semana no pueden superar las horas de trabajo del grupo por semana</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -442,12 +442,12 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -456,7 +456,37 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <bottom style="thin">
@@ -486,20 +516,13 @@
       </bottom>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -507,29 +530,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -554,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -606,21 +606,34 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -633,13 +646,22 @@
     <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="9" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="9" fillId="2" fontId="0" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -648,44 +670,25 @@
     <xf borderId="9" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="9" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="9" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="6" fontId="0" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="6" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="6" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="5" fontId="0" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="5" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -710,12 +713,6 @@
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="0" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -758,11 +755,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln cmpd="sng" w="19050">
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -784,11 +780,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln cmpd="sng" w="19050">
               <a:solidFill>
                 <a:srgbClr val="C0504D"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -801,11 +796,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1876830816"/>
-        <c:axId val="1253925075"/>
+        <c:axId val="912931366"/>
+        <c:axId val="1564603389"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1876830816"/>
+        <c:axId val="912931366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,10 +815,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1253925075"/>
+        <c:crossAx val="1564603389"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1253925075"/>
+        <c:axId val="1564603389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,7 +849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876830816"/>
+        <c:crossAx val="912931366"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -914,14 +909,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="48.63"/>
-    <col customWidth="1" min="2" max="2" width="34.63"/>
-    <col customWidth="1" min="3" max="3" width="10.63"/>
-    <col customWidth="1" min="4" max="8" width="10.0"/>
-    <col customWidth="1" min="9" max="9" width="10.63"/>
-    <col customWidth="1" min="10" max="26" width="10.0"/>
+    <col customWidth="1" min="1" max="1" width="55.57"/>
+    <col customWidth="1" min="2" max="2" width="39.57"/>
+    <col customWidth="1" min="3" max="3" width="12.14"/>
+    <col customWidth="1" min="4" max="8" width="11.43"/>
+    <col customWidth="1" min="9" max="9" width="12.14"/>
+    <col customWidth="1" min="10" max="26" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1141,1740 +1136,1878 @@
       <c r="Q15" s="18"/>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="21" t="s">
+      <c r="C16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="21" t="s">
+      <c r="D16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="20" t="s">
+      <c r="F16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="G16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
+      <c r="H16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="27">
+      <c r="A17" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="32">
         <v>270.0</v>
       </c>
-      <c r="G17" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="28">
+      <c r="G17" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="34">
         <f t="shared" ref="H17:H18" si="1">SUM(C17:G17)</f>
         <v>270</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="35">
         <v>1.0</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="37">
         <f t="shared" ref="J17:J46" si="2">H17/$H$66</f>
         <v>0.045</v>
       </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="33"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="36" t="str">
+        <f t="shared" ref="Q17:Q62" si="3">IF(O16&gt;0,I16,0)</f>
+        <v>Semana planeada terminación</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="30">
         <v>90.0</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="30">
         <v>60.0</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30">
         <v>60.0</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="34">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="35">
         <v>1.0</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="37">
         <f t="shared" si="2"/>
         <v>0.035</v>
       </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="33"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="34"/>
-      <c r="B19" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="40">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="43"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="30">
         <v>90.0</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="30">
         <v>90.0</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25">
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30">
         <v>90.0</v>
       </c>
-      <c r="H20" s="28">
-        <f t="shared" ref="H20:H24" si="3">SUM(C20:G20)</f>
+      <c r="H20" s="34">
+        <f t="shared" ref="H20:H24" si="4">SUM(C20:G20)</f>
         <v>270</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="35">
         <v>1.0</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="37">
         <f t="shared" si="2"/>
         <v>0.045</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="33"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25">
+      <c r="C21" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30">
         <v>180.0</v>
       </c>
-      <c r="H21" s="28">
-        <f t="shared" si="3"/>
+      <c r="H21" s="34">
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="35">
         <v>1.0</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="37">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="33"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="25">
+      <c r="C22" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="30">
         <v>180.0</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="28">
-        <f t="shared" si="3"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="34">
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="35">
         <v>1.0</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="37">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="33"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="30">
         <v>180.0</v>
       </c>
-      <c r="D23" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="28">
-        <f t="shared" si="3"/>
+      <c r="D23" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="34">
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="35">
         <v>1.0</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="37">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="33"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="30">
         <v>60.0</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="32">
         <v>60.0</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25">
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30">
         <v>90.0</v>
       </c>
-      <c r="H24" s="28">
-        <f t="shared" si="3"/>
+      <c r="H24" s="34">
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="35">
         <v>1.0</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="37">
         <f t="shared" si="2"/>
         <v>0.035</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="33"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="40">
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="41"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="43"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="30">
         <v>60.0</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="30">
         <v>60.0</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25">
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30">
         <v>120.0</v>
       </c>
-      <c r="H26" s="28">
-        <f t="shared" ref="H26:H34" si="4">SUM(C26:G26)</f>
+      <c r="H26" s="34">
+        <f t="shared" ref="H26:H34" si="5">SUM(C26:G26)</f>
         <v>240</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="35">
         <v>1.0</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="37">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="33"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D27" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25">
+      <c r="B27" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30">
         <v>120.0</v>
       </c>
-      <c r="H27" s="28">
-        <f t="shared" si="4"/>
+      <c r="H27" s="34">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="35">
         <v>2.0</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J27" s="37">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="33"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D28" s="25">
+      <c r="B28" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="30">
         <v>120.0</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="28">
-        <f t="shared" si="4"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="34">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="35">
         <v>2.0</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="37">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="33"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="25">
+      <c r="B29" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="30">
         <v>120.0</v>
       </c>
-      <c r="D29" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="28">
-        <f t="shared" si="4"/>
+      <c r="D29" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="34">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="35">
         <v>2.0</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="37">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="33"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="25">
+      <c r="B30" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="30">
         <v>90.0</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="30">
         <v>90.0</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25">
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30">
         <v>90.0</v>
       </c>
-      <c r="H30" s="28">
-        <f t="shared" si="4"/>
+      <c r="H30" s="34">
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="35">
         <v>2.0</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="37">
         <f t="shared" si="2"/>
         <v>0.045</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="33"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D31" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25">
+      <c r="B31" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30">
         <v>120.0</v>
       </c>
-      <c r="H31" s="28">
-        <f t="shared" si="4"/>
+      <c r="H31" s="34">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="35">
         <v>2.0</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="37">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="33"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="25">
+      <c r="B32" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="30">
         <v>120.0</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="28">
-        <f t="shared" si="4"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H32" s="34">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="35">
         <v>2.0</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="37">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="K32" s="31"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="33"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="25">
+      <c r="B33" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="30">
         <v>120.0</v>
       </c>
-      <c r="D33" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="28">
-        <f t="shared" si="4"/>
+      <c r="D33" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="34">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="35">
         <v>2.0</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J33" s="37">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="33"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="25">
+      <c r="B34" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="30">
         <v>90.0</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="30">
         <v>90.0</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25">
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30">
         <v>90.0</v>
       </c>
-      <c r="H34" s="28">
-        <f t="shared" si="4"/>
+      <c r="H34" s="34">
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="35">
         <v>2.0</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="37">
         <f t="shared" si="2"/>
         <v>0.045</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="33"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="34"/>
-      <c r="B35" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="40">
+      <c r="A35" s="41"/>
+      <c r="B35" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K35" s="41"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="43"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D36" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25">
+      <c r="B36" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30">
         <v>180.0</v>
       </c>
-      <c r="H36" s="28">
-        <f t="shared" ref="H36:H46" si="5">SUM(C36:G36)</f>
+      <c r="H36" s="34">
+        <f t="shared" ref="H36:H46" si="6">SUM(C36:G36)</f>
         <v>180</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="35">
         <v>2.0</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="37">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="33"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D37" s="25">
+      <c r="B37" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="30">
         <v>180.0</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H37" s="28">
-        <f t="shared" si="5"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H37" s="34">
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="35">
         <v>2.0</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="37">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="33"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="25">
+      <c r="B38" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="30">
         <v>180.0</v>
       </c>
-      <c r="D38" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="28">
-        <f t="shared" si="5"/>
+      <c r="D38" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="34">
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="35">
         <v>2.0</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="37">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="K38" s="31"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="33"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="25">
+      <c r="B39" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="30">
         <v>60.0</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="30">
         <v>60.0</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25">
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30">
         <v>60.0</v>
       </c>
-      <c r="H39" s="28">
-        <f t="shared" si="5"/>
+      <c r="H39" s="34">
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="30">
+      <c r="I39" s="35"/>
+      <c r="J39" s="37">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="K39" s="31"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="33"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D40" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25">
+      <c r="B40" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30">
         <v>180.0</v>
       </c>
-      <c r="H40" s="28">
-        <f t="shared" si="5"/>
+      <c r="H40" s="34">
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I40" s="35">
         <v>3.0</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="37">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="K40" s="31"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="33"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D41" s="25">
+      <c r="B41" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="30">
         <v>180.0</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H41" s="28">
-        <f t="shared" si="5"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H41" s="34">
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="35">
         <v>3.0</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="37">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="K41" s="31"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="33"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="25">
+      <c r="B42" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="30">
         <v>180.0</v>
       </c>
-      <c r="D42" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H42" s="28">
-        <f t="shared" si="5"/>
+      <c r="D42" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H42" s="34">
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="35">
         <v>3.0</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="37">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="K42" s="31"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="33"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="25">
+      <c r="B43" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="30">
         <v>20.0</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="30">
         <v>20.0</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25">
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30">
         <v>20.0</v>
       </c>
-      <c r="H43" s="28">
-        <f t="shared" si="5"/>
+      <c r="H43" s="34">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="30">
+      <c r="I43" s="35"/>
+      <c r="J43" s="37">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="K43" s="31"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="33"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D44" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E44" s="25">
+      <c r="B44" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D44" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E44" s="30">
         <v>60.0</v>
       </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H44" s="28">
-        <f t="shared" si="5"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H44" s="34">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="I44" s="29">
+      <c r="I44" s="35">
         <v>3.0</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J44" s="37">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="K44" s="31"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="33"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D45" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E45" s="25">
+      <c r="B45" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E45" s="30">
         <v>60.0</v>
       </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H45" s="28">
-        <f t="shared" si="5"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H45" s="34">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I45" s="35">
         <v>3.0</v>
       </c>
-      <c r="J45" s="30">
+      <c r="J45" s="37">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="K45" s="31"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="33"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D46" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E46" s="25">
+      <c r="B46" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E46" s="30">
         <v>60.0</v>
       </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H46" s="28">
-        <f t="shared" si="5"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H46" s="34">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="I46" s="29">
+      <c r="I46" s="35">
         <v>3.0</v>
       </c>
-      <c r="J46" s="30">
+      <c r="J46" s="37">
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
-      <c r="K46" s="31"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="33"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D48" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25">
+      <c r="B48" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D48" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30">
         <v>120.0</v>
       </c>
-      <c r="H48" s="28">
-        <f t="shared" ref="H48:H60" si="6">SUM(C48:G48)</f>
+      <c r="H48" s="34">
+        <f t="shared" ref="H48:H60" si="7">SUM(C48:G48)</f>
         <v>120</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I48" s="35">
         <v>3.0</v>
       </c>
-      <c r="J48" s="30">
-        <f t="shared" ref="J48:J61" si="7">H48/$H$66</f>
+      <c r="J48" s="37">
+        <f t="shared" ref="J48:J61" si="8">H48/$H$66</f>
         <v>0.02</v>
       </c>
-      <c r="K48" s="31"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="33"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D49" s="25">
+      <c r="B49" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="30">
         <v>120.0</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H49" s="28">
-        <f t="shared" si="6"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H49" s="34">
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I49" s="35">
         <v>3.0</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="37">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="K49" s="39"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="30">
+        <v>120.0</v>
+      </c>
+      <c r="D50" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H50" s="34">
         <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="I50" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="J50" s="37">
+        <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
-      <c r="K49" s="31"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="33"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="25" t="s">
+      <c r="K50" s="39"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30">
+        <v>110.0</v>
+      </c>
+      <c r="H51" s="34">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="I51" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="J51" s="37">
+        <f t="shared" si="8"/>
+        <v>0.01833333333</v>
+      </c>
+      <c r="K51" s="39"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D52" s="30">
+        <v>110.0</v>
+      </c>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H52" s="34">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="I52" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="J52" s="37">
+        <f t="shared" si="8"/>
+        <v>0.01833333333</v>
+      </c>
+      <c r="K52" s="39"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="25">
+      <c r="B53" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="30">
+        <v>110.0</v>
+      </c>
+      <c r="D53" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H53" s="34">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="I53" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="J53" s="37">
+        <f t="shared" si="8"/>
+        <v>0.01833333333</v>
+      </c>
+      <c r="K53" s="39"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D54" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E54" s="30">
+        <v>90.0</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H54" s="34">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="I54" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="J54" s="37">
+        <f t="shared" si="8"/>
+        <v>0.015</v>
+      </c>
+      <c r="K54" s="39"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D55" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E55" s="30">
+        <v>90.0</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H55" s="34">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="I55" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="J55" s="37">
+        <f t="shared" si="8"/>
+        <v>0.015</v>
+      </c>
+      <c r="K55" s="39"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D56" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E56" s="30">
+        <v>90.0</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H56" s="34">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="I56" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="J56" s="37">
+        <f t="shared" si="8"/>
+        <v>0.015</v>
+      </c>
+      <c r="K56" s="39"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D57" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E57" s="30">
         <v>120.0</v>
       </c>
-      <c r="D50" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H50" s="28">
-        <f t="shared" si="6"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H57" s="34">
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I57" s="35">
         <v>3.0</v>
       </c>
-      <c r="J50" s="30">
+      <c r="J57" s="37">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="K57" s="39"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D58" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E58" s="30">
+        <v>120.0</v>
+      </c>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H58" s="34">
         <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="I58" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="J58" s="37">
+        <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
-      <c r="K50" s="31"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="33"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D51" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25">
-        <v>110.0</v>
-      </c>
-      <c r="H51" s="28">
-        <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="I51" s="29">
+      <c r="K58" s="39"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D59" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E59" s="30">
+        <v>120.0</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H59" s="34">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="I59" s="35">
         <v>3.0</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J59" s="37">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="K59" s="39"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="30">
+        <v>60.0</v>
+      </c>
+      <c r="D60" s="30">
+        <v>60.0</v>
+      </c>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30">
+        <v>60.0</v>
+      </c>
+      <c r="H60" s="34">
         <f t="shared" si="7"/>
-        <v>0.01833333333</v>
-      </c>
-      <c r="K51" s="31"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="33"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="25">
-        <v>110.0</v>
-      </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="28">
-        <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="I52" s="29">
+        <v>180</v>
+      </c>
+      <c r="I60" s="35">
         <v>3.0</v>
       </c>
-      <c r="J52" s="30">
-        <f t="shared" si="7"/>
-        <v>0.01833333333</v>
-      </c>
-      <c r="K52" s="31"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="33"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="25">
-        <v>110.0</v>
-      </c>
-      <c r="D53" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H53" s="28">
-        <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="I53" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="J53" s="30">
-        <f t="shared" si="7"/>
-        <v>0.01833333333</v>
-      </c>
-      <c r="K53" s="31"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="33"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D54" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E54" s="25">
-        <v>90.0</v>
-      </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H54" s="28">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="I54" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="J54" s="30">
-        <f t="shared" si="7"/>
-        <v>0.015</v>
-      </c>
-      <c r="K54" s="31"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="33"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D55" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E55" s="25">
-        <v>90.0</v>
-      </c>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H55" s="28">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="I55" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="J55" s="30">
-        <f t="shared" si="7"/>
-        <v>0.015</v>
-      </c>
-      <c r="K55" s="31"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="33"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D56" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E56" s="25">
-        <v>90.0</v>
-      </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H56" s="28">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="I56" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="J56" s="30">
-        <f t="shared" si="7"/>
-        <v>0.015</v>
-      </c>
-      <c r="K56" s="31"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="33"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D57" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E57" s="25">
-        <v>120.0</v>
-      </c>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H57" s="28">
-        <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-      <c r="I57" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="J57" s="30">
-        <f t="shared" si="7"/>
-        <v>0.02</v>
-      </c>
-      <c r="K57" s="31"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="33"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D58" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E58" s="25">
-        <v>120.0</v>
-      </c>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H58" s="28">
-        <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-      <c r="I58" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="J58" s="30">
-        <f t="shared" si="7"/>
-        <v>0.02</v>
-      </c>
-      <c r="K58" s="31"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="33"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="D59" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E59" s="25">
-        <v>120.0</v>
-      </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H59" s="28">
-        <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-      <c r="I59" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="J59" s="30">
-        <f t="shared" si="7"/>
-        <v>0.02</v>
-      </c>
-      <c r="K59" s="31"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="33"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="25">
-        <v>60.0</v>
-      </c>
-      <c r="D60" s="25">
-        <v>60.0</v>
-      </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25">
-        <v>60.0</v>
-      </c>
-      <c r="H60" s="28">
-        <f t="shared" si="6"/>
-        <v>180</v>
-      </c>
-      <c r="I60" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="J60" s="30">
-        <f t="shared" si="7"/>
+      <c r="J60" s="37">
+        <f t="shared" si="8"/>
         <v>0.03</v>
       </c>
-      <c r="K60" s="31"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="33"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="34"/>
-      <c r="B61" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="41"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="43"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="45"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="33"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
-      <c r="B63" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="32">
-        <f t="shared" ref="C63:F63" si="8">SUM(C17:C62)</f>
+      <c r="B63" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="40">
+        <f t="shared" ref="C63:F63" si="9">SUM(C17:C62)</f>
         <v>1630</v>
       </c>
-      <c r="D63" s="32">
-        <f t="shared" si="8"/>
+      <c r="D63" s="40">
+        <f t="shared" si="9"/>
         <v>1600</v>
       </c>
-      <c r="E63" s="32">
-        <f t="shared" si="8"/>
+      <c r="E63" s="40">
+        <f t="shared" si="9"/>
         <v>810</v>
       </c>
-      <c r="F63" s="32">
-        <f t="shared" si="8"/>
+      <c r="F63" s="40">
+        <f t="shared" si="9"/>
         <v>270</v>
       </c>
-      <c r="G63" s="32">
+      <c r="G63" s="40">
         <f>SUM(G17:G60)</f>
         <v>1690</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="45">
-        <f t="shared" ref="C64:G64" si="9">C63/60</f>
+      <c r="B64" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="33">
+        <f t="shared" ref="C64:G64" si="10">C63/60</f>
         <v>27.16666667</v>
       </c>
-      <c r="D64" s="45">
-        <f t="shared" si="9"/>
+      <c r="D64" s="33">
+        <f t="shared" si="10"/>
         <v>26.66666667</v>
       </c>
-      <c r="E64" s="45">
-        <f t="shared" si="9"/>
+      <c r="E64" s="33">
+        <f t="shared" si="10"/>
         <v>13.5</v>
       </c>
-      <c r="F64" s="45">
-        <f t="shared" si="9"/>
+      <c r="F64" s="33">
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
-      <c r="G64" s="45">
-        <f t="shared" si="9"/>
+      <c r="G64" s="33">
+        <f t="shared" si="10"/>
         <v>28.16666667</v>
       </c>
     </row>
@@ -2887,56 +3020,56 @@
     </row>
     <row r="66">
       <c r="F66" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G66" s="8"/>
-      <c r="H66" s="28">
+      <c r="H66" s="34">
         <f>SUM(H17:H62)</f>
         <v>6000</v>
       </c>
-      <c r="I66" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="J66" s="53">
+      <c r="I66" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="J66" s="54">
         <f>SUM(J17:J62)</f>
         <v>1</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="O66" s="45">
+        <v>76</v>
+      </c>
+      <c r="O66" s="33">
         <f>SUM(O17:O62)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" s="45">
+      <c r="F67" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" s="33">
         <f>H66/60</f>
         <v>100</v>
       </c>
       <c r="J67" s="2"/>
-      <c r="N67" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="O67" s="45">
+      <c r="N67" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="O67" s="33">
         <f>O66/60</f>
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
@@ -2957,20 +3090,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.38"/>
-    <col customWidth="1" min="2" max="2" width="12.38"/>
-    <col customWidth="1" min="3" max="3" width="14.0"/>
-    <col customWidth="1" min="4" max="4" width="13.0"/>
-    <col customWidth="1" min="5" max="6" width="13.5"/>
-    <col customWidth="1" min="7" max="7" width="17.0"/>
-    <col customWidth="1" min="8" max="26" width="10.0"/>
+    <col customWidth="1" min="1" max="1" width="11.86"/>
+    <col customWidth="1" min="2" max="2" width="14.14"/>
+    <col customWidth="1" min="3" max="3" width="16.0"/>
+    <col customWidth="1" min="4" max="4" width="14.86"/>
+    <col customWidth="1" min="5" max="6" width="15.43"/>
+    <col customWidth="1" min="7" max="7" width="19.43"/>
+    <col customWidth="1" min="8" max="26" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -2986,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -3001,14 +3134,14 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="35"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="8">
       <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="37"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="17" t="s">
         <v>22</v>
       </c>
@@ -3016,167 +3149,167 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="G9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="25">
+      <c r="A10" s="30">
         <v>1.0</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="33">
         <f>(SUMIFS(Tareas!$H$17:$H$62,Tareas!$I$17:$I$62,Semanas!A10))/60</f>
         <v>29</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="36">
         <f>SUMIFS(Tareas!$J$17:$J$62,Tareas!$I$17:$I$62,Semanas!A10)</f>
         <v>0.29</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="38">
         <f>C10</f>
         <v>0.29</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="33">
         <f>(SUMIFS(Tareas!$O$17:$O$62,Tareas!$P$17:$P$62,Semanas!A10))/60</f>
         <v>0</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="36">
         <f>SUMIFS(Tareas!$Q$17:$Q$62,Tareas!$P$17:$P$62,Semanas!A10)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="36">
         <f>F10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25">
+      <c r="A11" s="30">
         <v>2.0</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="33">
         <f>(SUMIFS(Tareas!$H$17:$H$62,Tareas!$I$17:$I$62,Semanas!A11))/60</f>
         <v>30</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="36">
         <f>SUMIFS(Tareas!$J$17:$J$62,Tareas!$I$17:$I$62,Semanas!A11)</f>
         <v>0.3</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="38">
         <f t="shared" ref="D11:D13" si="1">D10+C11</f>
         <v>0.59</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="33">
         <f>(SUMIFS(Tareas!$O$17:$O$62,Tareas!$P$17:$P$62,Semanas!A11))/60</f>
         <v>0</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="36">
         <f>SUMIFS(Tareas!$Q$17:$Q$62,Tareas!$P$17:$P$62,Semanas!A11)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="36">
         <f t="shared" ref="G11:G13" si="2">G10+F11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="25">
+      <c r="A12" s="30">
         <v>3.0</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="33">
         <f>(SUMIFS(Tareas!$H$17:$H$62,Tareas!$I$17:$I$62,Semanas!A12))/60</f>
         <v>37</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="36">
         <f>SUMIFS(Tareas!$J$17:$J$62,Tareas!$I$17:$I$62,Semanas!A12)</f>
         <v>0.37</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="38">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="33">
         <f>(SUMIFS(Tareas!$O$17:$O$62,Tareas!$P$17:$P$62,Semanas!A12))/60</f>
         <v>0</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="36">
         <f>SUMIFS(Tareas!$Q$17:$Q$62,Tareas!$P$17:$P$62,Semanas!A12)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="25">
+      <c r="A13" s="30">
         <v>4.0</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="33">
         <f>(SUMIFS(Tareas!$H$17:$H$62,Tareas!$I$17:$I$62,Semanas!A13))/60</f>
         <v>0</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="36">
         <f>SUMIFS(Tareas!$J$17:$J$62,Tareas!$I$17:$I$62,Semanas!A13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="38">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="33">
         <f>(SUMIFS(Tareas!$O$17:$O$62,Tareas!$P$17:$P$62,Semanas!A13))/60</f>
         <v>0</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="36">
         <f>SUMIFS(Tareas!$Q$17:$Q$62,Tareas!$P$17:$P$62,Semanas!A13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="D14" s="55"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15">
-      <c r="B15" s="45">
+      <c r="B15" s="33">
         <f>SUM(B10:B13)</f>
         <v>96</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="45">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="33">
         <f>SUM(E10:E13)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="17">
       <c r="C17" s="2"/>
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2"/>
     </row>
